--- a/data/trans_orig/P14A23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6061BEB-CB7A-4D02-BD12-F9A0E109B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{407C5321-C2C0-46EB-9146-7865ABBFB91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCCE3AC-AA52-4548-91BF-6E1B3E2AC714}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{146D21D6-37B8-4AC7-B204-6674A479E4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -492,13 +492,13 @@
     <t>95,97%</t>
   </si>
   <si>
-    <t>85,62%</t>
+    <t>87,26%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>89,97%</t>
+    <t>90,71%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -507,145 +507,145 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>14,38%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>10,03%</t>
+    <t>9,29%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>78,57%</t>
+    <t>82,78%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>91,81%</t>
+    <t>91,21%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>93,25%</t>
+    <t>92,54%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>21,43%</t>
+    <t>17,22%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>8,19%</t>
+    <t>8,79%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>6,75%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>79,64%</t>
+    <t>83,84%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>20,36%</t>
+    <t>16,16%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>70,99%</t>
+    <t>71,17%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>94,03%</t>
+    <t>93,8%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>29,01%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>5,97%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,58%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>98,95%</t>
@@ -654,19 +654,19 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -675,25 +675,25 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F83A0B-B380-4647-B156-A3FD93B3E96E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE9AD9C-3624-46E6-A66C-0302D56EA04E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2324,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A35193-94D5-4942-97C4-39DC96DCECC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D6C73-F34C-45DB-AE67-263371161E4D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{407C5321-C2C0-46EB-9146-7865ABBFB91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF92C935-AE5C-4A6F-9C64-38AE157F78B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{146D21D6-37B8-4AC7-B204-6674A479E4D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CB9DA97-AF44-4F5F-BEA8-81790F9EA8A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="217">
   <si>
     <t>Población que recibe medicación o terapia por depresión o ansiedad en 2012 (Tasa respuesta: 7,79%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>84,04%</t>
   </si>
   <si>
-    <t>30,88%</t>
+    <t>31,91%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>47,25%</t>
+    <t>45,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>15,96%</t>
   </si>
   <si>
-    <t>69,12%</t>
+    <t>68,09%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>52,75%</t>
+    <t>54,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -126,55 +126,55 @@
     <t>60,57%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -183,49 +183,49 @@
     <t>95,38%</t>
   </si>
   <si>
-    <t>76,74%</t>
+    <t>78,58%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>23,26%</t>
+    <t>21,42%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -234,55 +234,49 @@
     <t>83,16%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>63,14%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>36,86%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -291,22 +285,22 @@
     <t>93,08%</t>
   </si>
   <si>
-    <t>78,25%</t>
+    <t>76,24%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>89,99%</t>
   </si>
   <si>
     <t>98,22%</t>
@@ -315,16 +309,16 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>21,75%</t>
+    <t>23,76%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>4,53%</t>
@@ -333,7 +327,7 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>10,01%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -342,109 +336,115 @@
     <t>90,54%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>87,09%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>12,91%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2015 (Tasa respuesta: 6,03%)</t>
+    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2016 (Tasa respuesta: 6,03%)</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -492,13 +492,13 @@
     <t>95,97%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>87,58%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>90,71%</t>
+    <t>89,56%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -507,193 +507,187 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,42%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>9,29%</t>
+    <t>10,44%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>82,78%</t>
+    <t>79,1%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>91,21%</t>
+    <t>90,28%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>17,22%</t>
+    <t>20,9%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>8,79%</t>
+    <t>9,72%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>83,84%</t>
+    <t>84,72%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>16,16%</t>
+    <t>15,28%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>71,17%</t>
+    <t>71,98%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>93,8%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>28,83%</t>
+    <t>28,02%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE9AD9C-3624-46E6-A66C-0302D56EA04E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF75C56-A9F3-487C-B027-FFDE31D55391}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1700,7 +1694,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -1709,13 +1703,13 @@
         <v>69407</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -1724,13 +1718,13 @@
         <v>92155</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,13 +1739,13 @@
         <v>4607</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1760,13 +1754,13 @@
         <v>6388</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1775,13 +1769,13 @@
         <v>10995</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,7 +1831,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1849,10 +1843,10 @@
         <v>27805</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1864,13 +1858,13 @@
         <v>79581</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -1879,13 +1873,13 @@
         <v>107387</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1894,13 @@
         <v>2067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1915,13 +1909,13 @@
         <v>3028</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1930,13 +1924,13 @@
         <v>5094</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +1986,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2004,13 +1998,13 @@
         <v>30435</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -2019,13 +2013,13 @@
         <v>131837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -2034,13 +2028,13 @@
         <v>162272</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2049,13 @@
         <v>3182</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2070,13 +2064,13 @@
         <v>10433</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -2085,10 +2079,10 @@
         <v>13615</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>115</v>
@@ -2324,7 +2318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D6C73-F34C-45DB-AE67-263371161E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF743EB-6031-43AD-B3BF-29C3C90DBD09}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2946,7 +2940,7 @@
         <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2964,13 +2958,13 @@
         <v>1004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2979,13 +2973,13 @@
         <v>1085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2994,13 +2988,13 @@
         <v>2089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,7 +3050,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3068,10 +3062,10 @@
         <v>24536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3083,13 +3077,13 @@
         <v>76907</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3098,13 +3092,13 @@
         <v>101444</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3113,13 @@
         <v>905</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3134,13 +3128,13 @@
         <v>6480</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3149,13 +3143,13 @@
         <v>7384</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3205,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3223,10 +3217,10 @@
         <v>20289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3235,13 +3229,13 @@
         <v>95</v>
       </c>
       <c r="I19" s="7">
-        <v>112422</v>
+        <v>112421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3253,13 +3247,13 @@
         <v>132711</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3268,13 @@
         <v>2164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3289,13 +3283,13 @@
         <v>2225</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3304,13 +3298,13 @@
         <v>4389</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3331,7 @@
         <v>97</v>
       </c>
       <c r="I21" s="7">
-        <v>114647</v>
+        <v>114646</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -3378,13 +3372,13 @@
         <v>92624</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>291</v>
@@ -3393,13 +3387,13 @@
         <v>321501</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>381</v>
@@ -3408,13 +3402,13 @@
         <v>414125</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3423,13 @@
         <v>4073</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -3444,13 +3438,13 @@
         <v>11526</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3459,13 +3453,13 @@
         <v>15599</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
